--- a/Documents/Mappings/sdtm_mapping.xlsx
+++ b/Documents/Mappings/sdtm_mapping.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_mapping/final/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/GitHub/DDF-RA/Documents/Mappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2012432D-D42D-AA40-9E8C-6B32CFC84575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAE8B94-2F96-E341-AE91-5DBBC5683982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55160" yWindow="1620" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="1" r:id="rId1"/>
@@ -1878,10 +1878,10 @@
     <t>Trial Duration Value + Units</t>
   </si>
   <si>
-    <t>v3.13</t>
-  </si>
-  <si>
     <t>SDMT IG v3.4</t>
+  </si>
+  <si>
+    <t>v4.0.0</t>
   </si>
 </sst>
 </file>
@@ -2220,18 +2220,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2261,6 +2249,18 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2570,7 +2570,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2584,7 +2584,7 @@
         <v>589</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2592,7 +2592,7 @@
         <v>604</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="22" x14ac:dyDescent="0.2">
@@ -2721,30 +2721,30 @@
     <col min="11" max="11" width="71" customWidth="1"/>
     <col min="12" max="12" width="36.5" customWidth="1"/>
     <col min="13" max="15" width="25.83203125" customWidth="1"/>
-    <col min="16" max="16" width="19.1640625" style="40" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -2792,7 +2792,7 @@
       <c r="O2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2838,7 +2838,7 @@
       <c r="O3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       <c r="O4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P4" s="39"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
@@ -2917,7 +2917,7 @@
       <c r="O5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="39"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
@@ -2963,7 +2963,7 @@
       <c r="O6" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="39"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
@@ -3009,7 +3009,7 @@
       <c r="O7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       <c r="O8" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3105,7 +3105,7 @@
       <c r="O9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="39" t="s">
+      <c r="P9" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3137,7 +3137,7 @@
       <c r="O10" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="39"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" ht="112" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
@@ -3180,7 +3180,7 @@
       <c r="O11" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="39" t="s">
+      <c r="P11" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       <c r="O12" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="39" t="s">
+      <c r="P12" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3267,30 +3267,30 @@
     <col min="11" max="11" width="49.33203125" customWidth="1"/>
     <col min="12" max="12" width="45.6640625" customWidth="1"/>
     <col min="13" max="13" width="25.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -3338,7 +3338,7 @@
       <c r="O2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       <c r="O3" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="35" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3415,7 +3415,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="42"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -3461,7 +3461,7 @@
       <c r="O5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="42"/>
+      <c r="P5" s="38"/>
     </row>
     <row r="6" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -3507,7 +3507,7 @@
       <c r="O6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="42"/>
+      <c r="P6" s="38"/>
     </row>
     <row r="7" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -3553,7 +3553,7 @@
       <c r="O7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="42"/>
+      <c r="P7" s="38"/>
     </row>
     <row r="8" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -3599,7 +3599,7 @@
       <c r="O8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="42"/>
+      <c r="P8" s="38"/>
     </row>
     <row r="9" spans="1:16" ht="160" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -3645,7 +3645,7 @@
       <c r="O9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="42"/>
+      <c r="P9" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3681,30 +3681,30 @@
     <col min="8" max="8" width="60.5" customWidth="1"/>
     <col min="9" max="13" width="26" customWidth="1"/>
     <col min="14" max="15" width="19.5" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" style="40" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -3752,7 +3752,7 @@
       <c r="O2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="34" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       <c r="O3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
-      <c r="P4" s="43"/>
+      <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
@@ -3876,7 +3876,7 @@
       <c r="O5" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
       <c r="O6" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
       <c r="O7" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
       <c r="O8" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="43" t="s">
+      <c r="P8" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
       <c r="O9" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="43" t="s">
+      <c r="P9" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
       <c r="O10" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="43" t="s">
+      <c r="P10" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4164,7 +4164,7 @@
       <c r="O11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="43" t="s">
+      <c r="P11" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4196,30 +4196,30 @@
   <cols>
     <col min="1" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="13" width="25.83203125" customWidth="1"/>
-    <col min="16" max="16" width="15" style="40" customWidth="1"/>
+    <col min="16" max="16" width="15" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -4267,7 +4267,7 @@
       <c r="O2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4313,7 +4313,7 @@
       <c r="O3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-      <c r="P4" s="44"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -4391,7 +4391,7 @@
       <c r="O5" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4439,7 +4439,7 @@
       <c r="O6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4487,7 +4487,7 @@
       <c r="O7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4535,7 +4535,7 @@
       <c r="O8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4567,7 +4567,7 @@
       <c r="O9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="44" t="s">
+      <c r="P9" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
       <c r="O10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4646,31 +4646,31 @@
     <col min="9" max="10" width="21.5" style="16" customWidth="1"/>
     <col min="11" max="12" width="32.6640625" style="16" customWidth="1"/>
     <col min="13" max="15" width="21.5" style="16" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" style="46" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" style="42" customWidth="1"/>
     <col min="17" max="16384" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -4718,7 +4718,7 @@
       <c r="O2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       <c r="O3" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -4796,7 +4796,7 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="45"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
@@ -4826,7 +4826,7 @@
       <c r="M5" s="12"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
-      <c r="P5" s="45"/>
+      <c r="P5" s="41"/>
     </row>
     <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
@@ -4856,7 +4856,7 @@
       <c r="M6" s="12"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
-      <c r="P6" s="45"/>
+      <c r="P6" s="41"/>
     </row>
     <row r="7" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
@@ -4886,7 +4886,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
-      <c r="P7" s="45"/>
+      <c r="P7" s="41"/>
     </row>
     <row r="8" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
@@ -4916,7 +4916,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
-      <c r="P8" s="45"/>
+      <c r="P8" s="41"/>
     </row>
     <row r="9" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
@@ -4946,7 +4946,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
-      <c r="P9" s="45"/>
+      <c r="P9" s="41"/>
     </row>
     <row r="10" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
@@ -4976,7 +4976,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
-      <c r="P10" s="45"/>
+      <c r="P10" s="41"/>
     </row>
     <row r="11" spans="1:16" ht="80" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
@@ -5006,7 +5006,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
-      <c r="P11" s="45"/>
+      <c r="P11" s="41"/>
     </row>
     <row r="12" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
@@ -5052,7 +5052,7 @@
       <c r="O12" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="45"/>
+      <c r="P12" s="41"/>
     </row>
     <row r="13" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
@@ -5098,7 +5098,7 @@
       <c r="O13" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="45"/>
+      <c r="P13" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5136,30 +5136,30 @@
     <col min="12" max="12" width="32.6640625" customWidth="1"/>
     <col min="13" max="13" width="32.5" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="32.6640625" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="40" customWidth="1"/>
+    <col min="16" max="16" width="16.5" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="44" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
     </row>
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -5207,7 +5207,7 @@
       <c r="O2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="37" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5251,7 +5251,7 @@
       <c r="O3" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P3" s="44" t="s">
+      <c r="P3" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5293,7 +5293,7 @@
       <c r="O4" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P4" s="44" t="s">
+      <c r="P4" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       <c r="O5" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="44" t="s">
+      <c r="P5" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5381,7 +5381,7 @@
       <c r="O6" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
       <c r="O7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P7" s="44" t="s">
+      <c r="P7" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5473,7 +5473,7 @@
       <c r="O8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="44" t="s">
+      <c r="P8" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5519,7 +5519,7 @@
       <c r="O9" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="44" t="s">
+      <c r="P9" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5567,7 +5567,7 @@
       <c r="O10" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="44" t="s">
+      <c r="P10" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5615,7 +5615,7 @@
       <c r="O11" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5663,7 +5663,7 @@
       <c r="O12" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       <c r="O13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="44" t="s">
+      <c r="P13" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5759,7 +5759,7 @@
       <c r="O14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P14" s="44" t="s">
+      <c r="P14" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5802,7 +5802,7 @@
       <c r="O15" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P15" s="44" t="s">
+      <c r="P15" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5850,7 +5850,7 @@
       <c r="O16" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P16" s="44" t="s">
+      <c r="P16" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5898,7 +5898,7 @@
       <c r="O17" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P17" s="44" t="s">
+      <c r="P17" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5946,7 +5946,7 @@
       <c r="O18" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P18" s="44" t="s">
+      <c r="P18" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5994,7 +5994,7 @@
       <c r="O19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P19" s="44" t="s">
+      <c r="P19" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6038,7 +6038,7 @@
       <c r="O20" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P20" s="44" t="s">
+      <c r="P20" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6084,7 +6084,7 @@
       <c r="O21" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P21" s="44" t="s">
+      <c r="P21" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6128,7 +6128,7 @@
       <c r="O22" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P22" s="44" t="s">
+      <c r="P22" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6172,7 +6172,7 @@
       <c r="O23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P23" s="44" t="s">
+      <c r="P23" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6216,7 +6216,7 @@
       <c r="O24" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P24" s="44"/>
+      <c r="P24" s="40"/>
     </row>
     <row r="25" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
@@ -6258,7 +6258,7 @@
       <c r="O25" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P25" s="44" t="s">
+      <c r="P25" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6306,7 +6306,7 @@
       <c r="O26" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P26" s="44" t="s">
+      <c r="P26" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6350,7 +6350,7 @@
       <c r="O27" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P27" s="44" t="s">
+      <c r="P27" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6394,7 +6394,7 @@
       <c r="O28" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P28" s="44" t="s">
+      <c r="P28" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
       <c r="O29" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P29" s="44"/>
+      <c r="P29" s="40"/>
     </row>
     <row r="30" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
@@ -6480,7 +6480,7 @@
       <c r="O30" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P30" s="44"/>
+      <c r="P30" s="40"/>
     </row>
     <row r="31" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
@@ -6522,7 +6522,7 @@
       <c r="O31" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P31" s="44" t="s">
+      <c r="P31" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6570,7 +6570,7 @@
       <c r="O32" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P32" s="44"/>
+      <c r="P32" s="40"/>
     </row>
     <row r="33" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
@@ -6616,7 +6616,7 @@
       <c r="O33" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P33" s="44" t="s">
+      <c r="P33" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -6664,7 +6664,7 @@
       <c r="O34" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P34" s="44"/>
+      <c r="P34" s="40"/>
     </row>
     <row r="35" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
@@ -6706,7 +6706,7 @@
       <c r="O35" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P35" s="44" t="s">
+      <c r="P35" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6750,7 +6750,7 @@
       <c r="O36" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P36" s="44" t="s">
+      <c r="P36" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
       <c r="O37" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P37" s="44" t="s">
+      <c r="P37" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       <c r="O38" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P38" s="44" t="s">
+      <c r="P38" s="40" t="s">
         <v>207</v>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
       <c r="O39" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P39" s="44"/>
+      <c r="P39" s="40"/>
     </row>
     <row r="40" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
@@ -6932,7 +6932,7 @@
       <c r="O40" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P40" s="44"/>
+      <c r="P40" s="40"/>
     </row>
     <row r="41" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="15" t="s">
@@ -6978,7 +6978,7 @@
       <c r="O41" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P41" s="44"/>
+      <c r="P41" s="40"/>
     </row>
     <row r="42" spans="1:16" ht="64" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
@@ -7022,7 +7022,7 @@
       <c r="O42" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P42" s="44" t="s">
+      <c r="P42" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7066,7 +7066,7 @@
       <c r="O43" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P43" s="47" t="s">
+      <c r="P43" s="43" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7110,7 +7110,7 @@
       <c r="O44" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P44" s="47" t="s">
+      <c r="P44" s="43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7156,7 +7156,7 @@
       <c r="O45" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P45" s="47"/>
+      <c r="P45" s="43"/>
     </row>
     <row r="46" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="15" t="s">
@@ -7198,7 +7198,7 @@
       <c r="O46" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P46" s="47" t="s">
+      <c r="P46" s="43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
       <c r="O47" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P47" s="47"/>
+      <c r="P47" s="43"/>
     </row>
     <row r="48" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A48" s="15" t="s">
@@ -7288,7 +7288,7 @@
       <c r="O48" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P48" s="47" t="s">
+      <c r="P48" s="43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7336,7 +7336,7 @@
       <c r="O49" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P49" s="47" t="s">
+      <c r="P49" s="43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7384,7 +7384,7 @@
       <c r="O50" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P50" s="47" t="s">
+      <c r="P50" s="43" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
       <c r="O51" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P51" s="47"/>
+      <c r="P51" s="43"/>
     </row>
     <row r="52" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="15" t="s">
@@ -7470,7 +7470,7 @@
       <c r="O52" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P52" s="47" t="s">
+      <c r="P52" s="43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7514,7 +7514,7 @@
       <c r="O53" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P53" s="47" t="s">
+      <c r="P53" s="43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7560,7 +7560,7 @@
       <c r="O54" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P54" s="47" t="s">
+      <c r="P54" s="43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7604,7 +7604,7 @@
       <c r="O55" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P55" s="47" t="s">
+      <c r="P55" s="43" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7648,7 +7648,7 @@
       <c r="O56" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P56" s="47" t="s">
+      <c r="P56" s="43" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7692,7 +7692,7 @@
       <c r="O57" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="P57" s="47"/>
+      <c r="P57" s="43"/>
     </row>
     <row r="58" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="15" t="s">
@@ -7734,7 +7734,7 @@
       <c r="O58" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P58" s="44" t="s">
+      <c r="P58" s="40" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7778,7 +7778,7 @@
       <c r="O59" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P59" s="44"/>
+      <c r="P59" s="40"/>
     </row>
     <row r="60" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A60" s="15" t="s">
@@ -7822,7 +7822,7 @@
       <c r="O60" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P60" s="44" t="s">
+      <c r="P60" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7866,7 +7866,7 @@
       <c r="O61" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P61" s="44"/>
+      <c r="P61" s="40"/>
     </row>
     <row r="62" spans="1:16" ht="32" x14ac:dyDescent="0.2">
       <c r="A62" s="15" t="s">
@@ -7908,7 +7908,7 @@
       <c r="O62" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P62" s="44" t="s">
+      <c r="P62" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7956,7 +7956,7 @@
       <c r="O63" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P63" s="44" t="s">
+      <c r="P63" s="40" t="s">
         <v>129</v>
       </c>
     </row>
@@ -8000,7 +8000,7 @@
       <c r="O64" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="P64" s="44" t="s">
+      <c r="P64" s="40" t="s">
         <v>129</v>
       </c>
     </row>
